--- a/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #09  SEPTIEMBRE 2023/P A G O S   SEABOARD  ZAVALETA  SEPT-23.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #09  SEPTIEMBRE 2023/P A G O S   SEABOARD  ZAVALETA  SEPT-23.xlsx
@@ -9,12 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22575" windowHeight="11760"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22575" windowHeight="11760" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="PAGOS   SEABOARD     ZAVALETA  " sheetId="1" r:id="rId1"/>
-    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
+    <sheet name="PAGOS  SEABOARD    HERRADURA " sheetId="2" r:id="rId2"/>
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
+    <sheet name="Hoja1" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="36">
   <si>
     <t>BBVA</t>
   </si>
@@ -314,6 +315,510 @@
   </si>
   <si>
     <t>ACCESE23-06</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Compra de 50,000.00    usd t.c.   17.540    A SEABOARD    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ACCSE23-10  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  FACTURA</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> --2218992   </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  valor   FACTURA  44,723.79    SALDO   A FAVOR   5,276.21  USD</t>
+    </r>
+  </si>
+  <si>
+    <t>ACCSE23-10</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Compra de 35,000.00    usd t.c.   17.510    A SEABOARD    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ACCSE23-12  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  FACTURA</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> --2224377   </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  valor   FACTURA  41,955.42    SALDO  PENDIENTE    6,955.42  USD</t>
+    </r>
+  </si>
+  <si>
+    <t>ACCSE23-12</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Compra de 45,000.00    usd t.c.   17.410    A SEABOARD    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ACCSE23-05  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  FACTURA</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> --2216889  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  valor   FACTURA  45,099.29    SALDO  PENDIENTE    99.29    USD</t>
+    </r>
+  </si>
+  <si>
+    <t>ACCSE23-05</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Compra de 43,000.00    usd t.c.   17.135    A SEABOARD    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ACCSE23-11  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  FACTURA</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> --2221744  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  valor   FACTURA  41,141.56    SALDO  A FAVOAR  1,858.44    USD</t>
+    </r>
+  </si>
+  <si>
+    <t>ACCSE23-11</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Compra de 50,000.00    usd t.c.   17.085    A SEABOARD    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ACCSE23-01  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  FACTURA</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> --2194705   </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  valor   FACTURA  43,209.74    SALDO  A FAVOR   6,790.26  USD</t>
+    </r>
+  </si>
+  <si>
+    <t>ACCSE23-01</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Compra de 56,000.00    usd t.c.   16,850    A SEABOARD    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ACCSE23-03    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  FACTURA</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> --2199240   </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  valor   FACTURA  51,744.67    SALDO  PENDIENTE   4,255.33  USD</t>
+    </r>
+  </si>
+  <si>
+    <t>ACCSE23-03</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Compra de 43,000.00    usd t.c.   16,720    A SEABOARD    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ACCSE23-08    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  FACTURA</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> --2204561   </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  valor   FACTURA  46,794.42    SALDO  PENDIENTE   3,794.42  USD</t>
+    </r>
+  </si>
+  <si>
+    <t>ACCSE23-08</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Compra de 40,000.00    usd t.c.   16,750   A SEABOARD    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ACCSE23-09    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  FACTURA</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> --2214699   </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  valor   FACTURA  43,004.15    SALDO  PENDIENTE   3,004.15  USD</t>
+    </r>
+  </si>
+  <si>
+    <t>ACCSE23-09</t>
   </si>
 </sst>
 </file>
@@ -325,7 +830,7 @@
     <numFmt numFmtId="165" formatCode="[$$-80A]#,##0.00"/>
     <numFmt numFmtId="166" formatCode="[$$-540A]#,##0.00"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -421,8 +926,31 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -447,8 +975,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00FFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00FF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="19">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -476,17 +1016,6 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -676,18 +1205,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -697,15 +1256,6 @@
     <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -718,62 +1268,20 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -781,22 +1289,22 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -805,14 +1313,109 @@
     <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="6" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -820,6 +1423,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF00FF00"/>
+      <color rgb="FF00FF99"/>
+      <color rgb="FF00FFFF"/>
+      <color rgb="FF3399FF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1097,90 +1708,90 @@
   <sheetPr>
     <tabColor theme="5" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="B1:K14"/>
+  <dimension ref="B1:K31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="4.42578125" customWidth="1"/>
     <col min="3" max="3" width="52.28515625" customWidth="1"/>
-    <col min="5" max="5" width="17.28515625" customWidth="1"/>
-    <col min="6" max="6" width="15.7109375" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" style="45" customWidth="1"/>
+    <col min="7" max="7" width="11.85546875" customWidth="1"/>
     <col min="8" max="8" width="13.7109375" customWidth="1"/>
-    <col min="9" max="9" width="15.85546875" customWidth="1"/>
+    <col min="9" max="9" width="13.5703125" customWidth="1"/>
     <col min="10" max="10" width="15.42578125" customWidth="1"/>
     <col min="11" max="11" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:11" ht="57" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="D1" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="25"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="58"/>
     </row>
     <row r="2" spans="2:11" ht="45" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C2" s="27" t="s">
+      <c r="C2" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="28"/>
-      <c r="E2" s="29" t="s">
+      <c r="D2" s="11"/>
+      <c r="E2" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="29" t="s">
+      <c r="F2" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="29" t="s">
+      <c r="G2" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="30" t="s">
+      <c r="H2" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="29" t="s">
+      <c r="I2" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="29" t="s">
+      <c r="J2" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="38" t="s">
+      <c r="K2" s="20" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="2:11" s="31" customFormat="1" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="32"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
-      <c r="H3" s="35"/>
-      <c r="I3" s="34"/>
-      <c r="J3" s="33"/>
-      <c r="K3" s="33"/>
-    </row>
-    <row r="4" spans="2:11" ht="75.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:11" s="14" customFormat="1" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="C3" s="33"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="15"/>
+    </row>
+    <row r="4" spans="2:11" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
-      <c r="C4" s="26"/>
-      <c r="D4" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E4" s="36"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="37"/>
-      <c r="H4" s="40"/>
-      <c r="I4" s="40"/>
-      <c r="J4" s="41">
-        <f t="shared" ref="J4:J14" si="0">I4-H4</f>
-        <v>0</v>
-      </c>
-      <c r="K4" s="44">
+      <c r="C4" s="35"/>
+      <c r="D4" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" s="39"/>
+      <c r="F4" s="43"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="23">
+        <f t="shared" ref="J4:J26" si="0">I4-H4</f>
+        <v>0</v>
+      </c>
+      <c r="K4" s="26">
         <f>J4</f>
         <v>0</v>
       </c>
@@ -1189,32 +1800,32 @@
       <c r="B5" s="1">
         <v>45117</v>
       </c>
-      <c r="C5" s="21" t="s">
+      <c r="C5" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E5" s="36" t="s">
+      <c r="D5" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="E5" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="39">
+      <c r="F5" s="43">
         <v>768600</v>
       </c>
-      <c r="G5" s="37">
+      <c r="G5" s="19">
         <v>2196214</v>
       </c>
-      <c r="H5" s="40">
+      <c r="H5" s="22">
         <v>51217.9</v>
       </c>
-      <c r="I5" s="40">
+      <c r="I5" s="22">
         <v>45000</v>
       </c>
-      <c r="J5" s="41">
+      <c r="J5" s="23">
         <f t="shared" si="0"/>
         <v>-6217.9000000000015</v>
       </c>
-      <c r="K5" s="44">
+      <c r="K5" s="26">
         <f>K4+J5</f>
         <v>-6217.9000000000015</v>
       </c>
@@ -1223,33 +1834,33 @@
       <c r="B6" s="1">
         <v>45131</v>
       </c>
-      <c r="C6" s="21" t="s">
+      <c r="C6" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E6" s="36" t="s">
+      <c r="D6" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="E6" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="39">
+      <c r="F6" s="43">
         <v>792561</v>
       </c>
-      <c r="G6" s="37">
+      <c r="G6" s="19">
         <v>2201614</v>
       </c>
-      <c r="H6" s="40">
+      <c r="H6" s="22">
         <v>45392.32</v>
       </c>
-      <c r="I6" s="40">
+      <c r="I6" s="22">
         <v>47000</v>
       </c>
-      <c r="J6" s="42">
+      <c r="J6" s="24">
         <f t="shared" si="0"/>
         <v>1607.6800000000003</v>
       </c>
-      <c r="K6" s="45">
-        <f t="shared" ref="K5:K10" si="1">K5+J6</f>
+      <c r="K6" s="27">
+        <f t="shared" ref="K6:K27" si="1">K5+J6</f>
         <v>-4610.2200000000012</v>
       </c>
     </row>
@@ -1257,168 +1868,536 @@
       <c r="B7" s="1">
         <v>45145</v>
       </c>
-      <c r="C7" s="21" t="s">
+      <c r="C7" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E7" s="36" t="s">
+      <c r="D7" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="E7" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="F7" s="39">
+      <c r="F7" s="43">
         <v>801820</v>
       </c>
-      <c r="G7" s="37">
+      <c r="G7" s="19">
         <v>2210533</v>
       </c>
-      <c r="H7" s="40">
+      <c r="H7" s="22">
         <v>42345.68</v>
       </c>
-      <c r="I7" s="40">
+      <c r="I7" s="22">
         <v>47000</v>
       </c>
-      <c r="J7" s="42">
+      <c r="J7" s="24">
         <f t="shared" si="0"/>
         <v>4654.32</v>
       </c>
-      <c r="K7" s="46">
+      <c r="K7" s="28">
         <f t="shared" si="1"/>
         <v>44.099999999998545</v>
       </c>
     </row>
-    <row r="8" spans="2:11" ht="73.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:11" ht="74.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="1">
         <v>45159</v>
       </c>
-      <c r="C8" s="21" t="s">
+      <c r="C8" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E8" s="36" t="s">
+      <c r="D8" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="E8" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="F8" s="39">
+      <c r="F8" s="43">
         <v>732290</v>
       </c>
-      <c r="G8" s="37">
+      <c r="G8" s="19">
         <v>2212548</v>
       </c>
-      <c r="H8" s="40">
+      <c r="H8" s="22">
         <v>42733.53</v>
       </c>
-      <c r="I8" s="40">
+      <c r="I8" s="22">
         <v>43000</v>
       </c>
-      <c r="J8" s="42">
+      <c r="J8" s="24">
         <f t="shared" si="0"/>
         <v>266.47000000000116</v>
       </c>
-      <c r="K8" s="46">
+      <c r="K8" s="28">
         <f t="shared" si="1"/>
         <v>310.56999999999971</v>
       </c>
     </row>
-    <row r="9" spans="2:11" ht="21" x14ac:dyDescent="0.25">
-      <c r="B9" s="1"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E9" s="36"/>
-      <c r="F9" s="39"/>
-      <c r="G9" s="37"/>
-      <c r="H9" s="40"/>
-      <c r="I9" s="40"/>
-      <c r="J9" s="42">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K9" s="46">
-        <f t="shared" si="1"/>
+    <row r="9" spans="2:11" ht="74.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="29">
+        <v>45174</v>
+      </c>
+      <c r="C9" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="E9" s="39" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" s="43">
+        <v>783450</v>
+      </c>
+      <c r="G9" s="19">
+        <v>2216889</v>
+      </c>
+      <c r="H9" s="22">
+        <v>45099.29</v>
+      </c>
+      <c r="I9" s="22">
+        <v>45000</v>
+      </c>
+      <c r="J9" s="24">
+        <f t="shared" si="0"/>
+        <v>-99.290000000000873</v>
+      </c>
+      <c r="K9" s="28">
+        <f t="shared" si="1"/>
+        <v>211.27999999999884</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" ht="73.5" x14ac:dyDescent="0.25">
+      <c r="B10" s="29">
+        <v>45187</v>
+      </c>
+      <c r="C10" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="E10" s="39" t="s">
+        <v>27</v>
+      </c>
+      <c r="F10" s="43">
+        <v>736805</v>
+      </c>
+      <c r="G10" s="19">
+        <v>2221744</v>
+      </c>
+      <c r="H10" s="22">
+        <v>41141.56</v>
+      </c>
+      <c r="I10" s="22">
+        <v>43000</v>
+      </c>
+      <c r="J10" s="24">
+        <f t="shared" si="0"/>
+        <v>1858.4400000000023</v>
+      </c>
+      <c r="K10" s="28">
+        <f t="shared" si="1"/>
+        <v>2069.7200000000012</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" ht="21" x14ac:dyDescent="0.25">
+      <c r="B11" s="29"/>
+      <c r="C11" s="37"/>
+      <c r="D11" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="E11" s="39"/>
+      <c r="F11" s="43"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="22"/>
+      <c r="I11" s="22"/>
+      <c r="J11" s="24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K11" s="28">
+        <f t="shared" si="1"/>
+        <v>2069.7200000000012</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" ht="21" x14ac:dyDescent="0.25">
+      <c r="B12" s="29"/>
+      <c r="C12" s="37"/>
+      <c r="D12" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="E12" s="39"/>
+      <c r="F12" s="43"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="22"/>
+      <c r="I12" s="22"/>
+      <c r="J12" s="24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K12" s="28">
+        <f t="shared" si="1"/>
+        <v>2069.7200000000012</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" ht="21" x14ac:dyDescent="0.25">
+      <c r="B13" s="29"/>
+      <c r="C13" s="37"/>
+      <c r="D13" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="E13" s="39"/>
+      <c r="F13" s="43"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="22"/>
+      <c r="I13" s="22"/>
+      <c r="J13" s="24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K13" s="28">
+        <f t="shared" si="1"/>
+        <v>2069.7200000000012</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" ht="21" x14ac:dyDescent="0.25">
+      <c r="B14" s="29"/>
+      <c r="C14" s="37"/>
+      <c r="D14" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="E14" s="39"/>
+      <c r="F14" s="43"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="22"/>
+      <c r="I14" s="22"/>
+      <c r="J14" s="24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K14" s="28">
+        <f t="shared" si="1"/>
+        <v>2069.7200000000012</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" ht="21" x14ac:dyDescent="0.25">
+      <c r="B15" s="29"/>
+      <c r="C15" s="37"/>
+      <c r="D15" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="E15" s="39"/>
+      <c r="F15" s="43"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="22"/>
+      <c r="J15" s="24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K15" s="28">
+        <f t="shared" si="1"/>
+        <v>2069.7200000000012</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11" ht="21" x14ac:dyDescent="0.25">
+      <c r="B16" s="29"/>
+      <c r="C16" s="37"/>
+      <c r="D16" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="E16" s="39"/>
+      <c r="F16" s="43"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="22"/>
+      <c r="I16" s="22"/>
+      <c r="J16" s="24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K16" s="28">
+        <f t="shared" si="1"/>
+        <v>2069.7200000000012</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" ht="21" x14ac:dyDescent="0.25">
+      <c r="B17" s="29"/>
+      <c r="C17" s="37"/>
+      <c r="D17" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="E17" s="39"/>
+      <c r="F17" s="43"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="22"/>
+      <c r="J17" s="24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K17" s="28">
+        <f t="shared" si="1"/>
+        <v>2069.7200000000012</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" ht="21" x14ac:dyDescent="0.25">
+      <c r="B18" s="29"/>
+      <c r="C18" s="37"/>
+      <c r="D18" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="E18" s="39"/>
+      <c r="F18" s="43"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="22"/>
+      <c r="I18" s="22"/>
+      <c r="J18" s="24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K18" s="28">
+        <f t="shared" si="1"/>
+        <v>2069.7200000000012</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" ht="21" x14ac:dyDescent="0.25">
+      <c r="B19" s="29"/>
+      <c r="C19" s="37"/>
+      <c r="D19" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="E19" s="39"/>
+      <c r="F19" s="43"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="22"/>
+      <c r="I19" s="22"/>
+      <c r="J19" s="24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K19" s="28">
+        <f t="shared" si="1"/>
+        <v>2069.7200000000012</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" ht="21" x14ac:dyDescent="0.25">
+      <c r="B20" s="29"/>
+      <c r="C20" s="37"/>
+      <c r="D20" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="E20" s="39"/>
+      <c r="F20" s="43"/>
+      <c r="G20" s="19"/>
+      <c r="H20" s="22"/>
+      <c r="I20" s="22"/>
+      <c r="J20" s="24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K20" s="28">
+        <f t="shared" si="1"/>
+        <v>2069.7200000000012</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11" ht="21" x14ac:dyDescent="0.25">
+      <c r="B21" s="29"/>
+      <c r="C21" s="37"/>
+      <c r="D21" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="E21" s="39"/>
+      <c r="F21" s="43"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="22"/>
+      <c r="I21" s="22"/>
+      <c r="J21" s="24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K21" s="28">
+        <f t="shared" si="1"/>
+        <v>2069.7200000000012</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11" ht="21" x14ac:dyDescent="0.25">
+      <c r="B22" s="29"/>
+      <c r="C22" s="37"/>
+      <c r="D22" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="E22" s="39"/>
+      <c r="F22" s="43"/>
+      <c r="G22" s="19"/>
+      <c r="H22" s="22"/>
+      <c r="I22" s="22"/>
+      <c r="J22" s="24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K22" s="28">
+        <f t="shared" si="1"/>
+        <v>2069.7200000000012</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11" ht="21" x14ac:dyDescent="0.25">
+      <c r="B23" s="29"/>
+      <c r="C23" s="37"/>
+      <c r="D23" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="E23" s="39"/>
+      <c r="F23" s="43"/>
+      <c r="G23" s="19"/>
+      <c r="H23" s="22"/>
+      <c r="I23" s="22"/>
+      <c r="J23" s="24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K23" s="28">
+        <f t="shared" si="1"/>
+        <v>2069.7200000000012</v>
+      </c>
+    </row>
+    <row r="24" spans="2:11" ht="21" x14ac:dyDescent="0.25">
+      <c r="B24" s="29"/>
+      <c r="C24" s="37"/>
+      <c r="D24" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="E24" s="39"/>
+      <c r="F24" s="43"/>
+      <c r="G24" s="19"/>
+      <c r="H24" s="22"/>
+      <c r="I24" s="22"/>
+      <c r="J24" s="24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K24" s="28">
+        <f t="shared" si="1"/>
+        <v>2069.7200000000012</v>
+      </c>
+    </row>
+    <row r="25" spans="2:11" ht="21" x14ac:dyDescent="0.25">
+      <c r="B25" s="29"/>
+      <c r="C25" s="37"/>
+      <c r="D25" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="E25" s="39"/>
+      <c r="F25" s="43"/>
+      <c r="G25" s="19"/>
+      <c r="H25" s="22"/>
+      <c r="I25" s="22"/>
+      <c r="J25" s="24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K25" s="28">
+        <f t="shared" si="1"/>
+        <v>2069.7200000000012</v>
+      </c>
+    </row>
+    <row r="26" spans="2:11" ht="21" x14ac:dyDescent="0.25">
+      <c r="B26" s="29"/>
+      <c r="C26" s="38"/>
+      <c r="D26" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="E26" s="39"/>
+      <c r="F26" s="43"/>
+      <c r="G26" s="19"/>
+      <c r="H26" s="22"/>
+      <c r="I26" s="22"/>
+      <c r="J26" s="24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K26" s="28">
+        <f>K8+J26</f>
         <v>310.56999999999971</v>
       </c>
     </row>
-    <row r="10" spans="2:11" ht="21" x14ac:dyDescent="0.35">
-      <c r="B10" s="1"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="36"/>
-      <c r="F10" s="39"/>
-      <c r="G10" s="37"/>
-      <c r="H10" s="40"/>
-      <c r="I10" s="40"/>
-      <c r="J10" s="43">
-        <f t="shared" ref="J9:J14" si="2">I10-H10</f>
-        <v>0</v>
-      </c>
-      <c r="K10" s="46">
+    <row r="27" spans="2:11" ht="21" x14ac:dyDescent="0.35">
+      <c r="B27" s="29"/>
+      <c r="C27" s="31"/>
+      <c r="D27" s="32"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="43"/>
+      <c r="G27" s="19"/>
+      <c r="H27" s="22"/>
+      <c r="I27" s="22"/>
+      <c r="J27" s="25">
+        <f t="shared" ref="J27:J28" si="2">I27-H27</f>
+        <v>0</v>
+      </c>
+      <c r="K27" s="28">
         <f t="shared" si="1"/>
         <v>310.56999999999971</v>
       </c>
     </row>
-    <row r="11" spans="2:11" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="1"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="9">
+    <row r="28" spans="2:11" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B28" s="1"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="44"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K11" s="10"/>
-    </row>
-    <row r="12" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B12" s="1"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="13" t="s">
+      <c r="K28" s="6"/>
+    </row>
+    <row r="29" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B29" s="1"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="44"/>
+      <c r="G29" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="H12" s="14"/>
-      <c r="I12" s="15">
-        <f>K10</f>
+      <c r="H29" s="49"/>
+      <c r="I29" s="52">
+        <f>K27</f>
         <v>310.56999999999971</v>
       </c>
-      <c r="J12" s="16"/>
-      <c r="K12" s="10"/>
-    </row>
-    <row r="13" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="1"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="18"/>
-      <c r="I13" s="19"/>
-      <c r="J13" s="20"/>
-      <c r="K13" s="10"/>
-    </row>
-    <row r="14" spans="2:11" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B14" s="1"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="10"/>
+      <c r="J29" s="53"/>
+      <c r="K29" s="6"/>
+    </row>
+    <row r="30" spans="2:11" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B30" s="1"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="44"/>
+      <c r="G30" s="50"/>
+      <c r="H30" s="51"/>
+      <c r="I30" s="54"/>
+      <c r="J30" s="55"/>
+      <c r="K30" s="6"/>
+    </row>
+    <row r="31" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B31" s="1"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="44"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="4"/>
+      <c r="I31" s="4"/>
+      <c r="J31" s="4"/>
+      <c r="K31" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="G12:H13"/>
-    <mergeCell ref="I12:J13"/>
+    <mergeCell ref="G29:H30"/>
+    <mergeCell ref="I29:J30"/>
     <mergeCell ref="D1:G1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1427,12 +2406,661 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <sheetPr>
+    <tabColor rgb="FF00B0F0"/>
+  </sheetPr>
+  <dimension ref="B1:K29"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="4.42578125" customWidth="1"/>
+    <col min="3" max="3" width="52.28515625" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" customWidth="1"/>
+    <col min="7" max="7" width="11.85546875" customWidth="1"/>
+    <col min="8" max="8" width="13.7109375" customWidth="1"/>
+    <col min="9" max="9" width="13.5703125" customWidth="1"/>
+    <col min="10" max="10" width="15.42578125" customWidth="1"/>
+    <col min="11" max="11" width="16.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:11" ht="57" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C1" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="59" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="61"/>
+    </row>
+    <row r="2" spans="2:11" ht="45" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C2" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="11"/>
+      <c r="E2" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K2" s="20" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="2:11" s="14" customFormat="1" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C3" s="33"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="15"/>
+    </row>
+    <row r="4" spans="2:11" ht="94.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="1">
+        <v>45110</v>
+      </c>
+      <c r="C4" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" s="21">
+        <v>854250</v>
+      </c>
+      <c r="G4" s="19">
+        <v>2194705</v>
+      </c>
+      <c r="H4" s="22">
+        <v>43209.74</v>
+      </c>
+      <c r="I4" s="22">
+        <v>50000</v>
+      </c>
+      <c r="J4" s="23">
+        <f t="shared" ref="J4:J26" si="0">I4-H4</f>
+        <v>6790.260000000002</v>
+      </c>
+      <c r="K4" s="26">
+        <f>J4</f>
+        <v>6790.260000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" ht="74.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="1">
+        <v>45124</v>
+      </c>
+      <c r="C5" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="E5" s="39" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" s="21">
+        <v>943600</v>
+      </c>
+      <c r="G5" s="19">
+        <v>2199240</v>
+      </c>
+      <c r="H5" s="22">
+        <v>51744.67</v>
+      </c>
+      <c r="I5" s="22">
+        <v>56000</v>
+      </c>
+      <c r="J5" s="23">
+        <f t="shared" si="0"/>
+        <v>4255.3300000000017</v>
+      </c>
+      <c r="K5" s="26">
+        <f>K4+J5</f>
+        <v>11045.590000000004</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" ht="74.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="1">
+        <v>45138</v>
+      </c>
+      <c r="C6" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="E6" s="39" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6" s="21">
+        <v>718960</v>
+      </c>
+      <c r="G6" s="19">
+        <v>2204561</v>
+      </c>
+      <c r="H6" s="22">
+        <v>46794.42</v>
+      </c>
+      <c r="I6" s="22">
+        <v>43000</v>
+      </c>
+      <c r="J6" s="24">
+        <f t="shared" si="0"/>
+        <v>-3794.4199999999983</v>
+      </c>
+      <c r="K6" s="27">
+        <f t="shared" ref="K6:K25" si="1">K5+J6</f>
+        <v>7251.1700000000055</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" ht="88.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="1">
+        <v>45166</v>
+      </c>
+      <c r="C7" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="E7" s="39" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" s="21">
+        <v>670000</v>
+      </c>
+      <c r="G7" s="19">
+        <v>2214699</v>
+      </c>
+      <c r="H7" s="22">
+        <v>43004.15</v>
+      </c>
+      <c r="I7" s="22">
+        <v>40000</v>
+      </c>
+      <c r="J7" s="24">
+        <f t="shared" si="0"/>
+        <v>-3004.1500000000015</v>
+      </c>
+      <c r="K7" s="28">
+        <f t="shared" si="1"/>
+        <v>4247.0200000000041</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" ht="74.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="29">
+        <v>45180</v>
+      </c>
+      <c r="C8" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="E8" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" s="21">
+        <v>877000</v>
+      </c>
+      <c r="G8" s="19">
+        <v>2218992</v>
+      </c>
+      <c r="H8" s="22">
+        <v>44723.79</v>
+      </c>
+      <c r="I8" s="22">
+        <v>50000</v>
+      </c>
+      <c r="J8" s="24">
+        <f t="shared" si="0"/>
+        <v>5276.2099999999991</v>
+      </c>
+      <c r="K8" s="28">
+        <f t="shared" si="1"/>
+        <v>9523.2300000000032</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" ht="73.5" x14ac:dyDescent="0.25">
+      <c r="B9" s="46">
+        <v>45195</v>
+      </c>
+      <c r="C9" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="E9" s="47" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" s="21">
+        <v>612850</v>
+      </c>
+      <c r="G9" s="19">
+        <v>2224377</v>
+      </c>
+      <c r="H9" s="22">
+        <v>41955.42</v>
+      </c>
+      <c r="I9" s="22">
+        <v>35000</v>
+      </c>
+      <c r="J9" s="24">
+        <f t="shared" si="0"/>
+        <v>-6955.4199999999983</v>
+      </c>
+      <c r="K9" s="28">
+        <f t="shared" si="1"/>
+        <v>2567.8100000000049</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" ht="21" x14ac:dyDescent="0.25">
+      <c r="B10" s="29"/>
+      <c r="C10" s="37"/>
+      <c r="D10" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="E10" s="39"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="22"/>
+      <c r="I10" s="22"/>
+      <c r="J10" s="24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K10" s="28">
+        <f t="shared" si="1"/>
+        <v>2567.8100000000049</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" ht="21" x14ac:dyDescent="0.25">
+      <c r="B11" s="29"/>
+      <c r="C11" s="37"/>
+      <c r="D11" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="E11" s="39"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="22"/>
+      <c r="I11" s="22"/>
+      <c r="J11" s="24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K11" s="28">
+        <f t="shared" si="1"/>
+        <v>2567.8100000000049</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" ht="21" x14ac:dyDescent="0.25">
+      <c r="B12" s="29"/>
+      <c r="C12" s="37"/>
+      <c r="D12" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="E12" s="39"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="22"/>
+      <c r="I12" s="22"/>
+      <c r="J12" s="24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K12" s="28">
+        <f t="shared" si="1"/>
+        <v>2567.8100000000049</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" ht="21" x14ac:dyDescent="0.25">
+      <c r="B13" s="29"/>
+      <c r="C13" s="37"/>
+      <c r="D13" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="E13" s="39"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="22"/>
+      <c r="I13" s="22"/>
+      <c r="J13" s="24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K13" s="28">
+        <f t="shared" si="1"/>
+        <v>2567.8100000000049</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" ht="21" x14ac:dyDescent="0.25">
+      <c r="B14" s="29"/>
+      <c r="C14" s="37"/>
+      <c r="D14" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="E14" s="39"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="22"/>
+      <c r="I14" s="22"/>
+      <c r="J14" s="24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K14" s="28">
+        <f t="shared" si="1"/>
+        <v>2567.8100000000049</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" ht="21" x14ac:dyDescent="0.25">
+      <c r="B15" s="29"/>
+      <c r="C15" s="37"/>
+      <c r="D15" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="E15" s="39"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="22"/>
+      <c r="J15" s="24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K15" s="28">
+        <f t="shared" si="1"/>
+        <v>2567.8100000000049</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11" ht="21" x14ac:dyDescent="0.25">
+      <c r="B16" s="29"/>
+      <c r="C16" s="37"/>
+      <c r="D16" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="E16" s="39"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="22"/>
+      <c r="I16" s="22"/>
+      <c r="J16" s="24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K16" s="28">
+        <f t="shared" si="1"/>
+        <v>2567.8100000000049</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" ht="21" x14ac:dyDescent="0.25">
+      <c r="B17" s="29"/>
+      <c r="C17" s="37"/>
+      <c r="D17" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="E17" s="39"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="22"/>
+      <c r="J17" s="24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K17" s="28">
+        <f t="shared" si="1"/>
+        <v>2567.8100000000049</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" ht="21" x14ac:dyDescent="0.25">
+      <c r="B18" s="29"/>
+      <c r="C18" s="37"/>
+      <c r="D18" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="E18" s="39"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="22"/>
+      <c r="I18" s="22"/>
+      <c r="J18" s="24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K18" s="28">
+        <f t="shared" si="1"/>
+        <v>2567.8100000000049</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" ht="21" x14ac:dyDescent="0.25">
+      <c r="B19" s="29"/>
+      <c r="C19" s="37"/>
+      <c r="D19" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="E19" s="39"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="22"/>
+      <c r="I19" s="22"/>
+      <c r="J19" s="24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K19" s="28">
+        <f t="shared" si="1"/>
+        <v>2567.8100000000049</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" ht="21" x14ac:dyDescent="0.25">
+      <c r="B20" s="29"/>
+      <c r="C20" s="37"/>
+      <c r="D20" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="E20" s="39"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="19"/>
+      <c r="H20" s="22"/>
+      <c r="I20" s="22"/>
+      <c r="J20" s="24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K20" s="28">
+        <f t="shared" si="1"/>
+        <v>2567.8100000000049</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11" ht="21" x14ac:dyDescent="0.25">
+      <c r="B21" s="29"/>
+      <c r="C21" s="37"/>
+      <c r="D21" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="E21" s="39"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="22"/>
+      <c r="I21" s="22"/>
+      <c r="J21" s="24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K21" s="28">
+        <f t="shared" si="1"/>
+        <v>2567.8100000000049</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11" ht="21" x14ac:dyDescent="0.25">
+      <c r="B22" s="29"/>
+      <c r="C22" s="37"/>
+      <c r="D22" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="E22" s="39"/>
+      <c r="F22" s="21"/>
+      <c r="G22" s="19"/>
+      <c r="H22" s="22"/>
+      <c r="I22" s="22"/>
+      <c r="J22" s="24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K22" s="28">
+        <f t="shared" si="1"/>
+        <v>2567.8100000000049</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11" ht="21" x14ac:dyDescent="0.25">
+      <c r="B23" s="29"/>
+      <c r="C23" s="37"/>
+      <c r="D23" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="E23" s="39"/>
+      <c r="F23" s="21"/>
+      <c r="G23" s="19"/>
+      <c r="H23" s="22"/>
+      <c r="I23" s="22"/>
+      <c r="J23" s="24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K23" s="28">
+        <f t="shared" si="1"/>
+        <v>2567.8100000000049</v>
+      </c>
+    </row>
+    <row r="24" spans="2:11" ht="21" x14ac:dyDescent="0.25">
+      <c r="B24" s="29"/>
+      <c r="C24" s="38"/>
+      <c r="D24" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="E24" s="39"/>
+      <c r="F24" s="21"/>
+      <c r="G24" s="19"/>
+      <c r="H24" s="22"/>
+      <c r="I24" s="22"/>
+      <c r="J24" s="24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K24" s="28" t="e">
+        <f>#REF!+J24</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="25" spans="2:11" ht="21" x14ac:dyDescent="0.35">
+      <c r="B25" s="29"/>
+      <c r="C25" s="31"/>
+      <c r="D25" s="32"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="21"/>
+      <c r="G25" s="19"/>
+      <c r="H25" s="22"/>
+      <c r="I25" s="22"/>
+      <c r="J25" s="25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K25" s="28" t="e">
+        <f t="shared" si="1"/>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="26" spans="2:11" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="1"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K26" s="6"/>
+    </row>
+    <row r="27" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B27" s="1"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="48" t="s">
+        <v>1</v>
+      </c>
+      <c r="H27" s="49"/>
+      <c r="I27" s="52" t="e">
+        <f>K25</f>
+        <v>#REF!</v>
+      </c>
+      <c r="J27" s="53"/>
+      <c r="K27" s="6"/>
+    </row>
+    <row r="28" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="1"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="50"/>
+      <c r="H28" s="51"/>
+      <c r="I28" s="54"/>
+      <c r="J28" s="55"/>
+      <c r="K28" s="6"/>
+    </row>
+    <row r="29" spans="2:11" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B29" s="1"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4"/>
+      <c r="J29" s="4"/>
+      <c r="K29" s="6"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="G27:H28"/>
+    <mergeCell ref="I27:J28"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1447,4 +3075,16 @@
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>